--- a/dados_transportadoras_vtex.xlsx
+++ b/dados_transportadoras_vtex.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,222 +448,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>88134360</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2071060</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retira - SC PALHOCA - Loja Palhoça (30)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1bd</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Grátis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>88134360</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2071060</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retira - SC SAO JOSE - Loja Campinas (1)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1bd</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Grátis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>88134360</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2071060</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Entrega SC</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4bd</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>R$ 29.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>88134360</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1653182</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retira - SC PALHOCA - Loja Palhoça (30)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1bd</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Grátis</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>88134360</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1653182</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retira - SC SAO JOSE - Loja Campinas (1)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1bd</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Grátis</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>88134360</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1653182</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retira - SC SAO JOSE - Centro de Distribuição (8)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1bd</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Grátis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>88134360</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1653182</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Entrega SC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1bd</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Grátis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>88134360</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1653182</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Transportadora</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8bd</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>R$ 84.63</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_transportadoras_vtex.xlsx
+++ b/dados_transportadoras_vtex.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,75 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2071060</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retira - SC PALHOCA - Loja Palhoça (30)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2071060</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retira - SC SAO JOSE - Loja Campinas (1)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2071060</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Entrega SC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4bd</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R$ 29.65</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_transportadoras_vtex.xlsx
+++ b/dados_transportadoras_vtex.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,282 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retira - SC SAO JOSE - Loja Campinas (1)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retira - SC SAO JOSE - Centro de Distribuição (8)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Entrega SC</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Transportadora</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7bd</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R$ 20.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>88137360</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2071060</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retira - SC PALHOCA - Loja Palhoça (30)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>88137360</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2071060</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retira - SC SAO JOSE - Loja Campinas (1)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>88137360</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2071060</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Entrega SC</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4bd</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>R$ 29.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>88137360</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retira - SC SAO JOSE - Loja Campinas (1)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>88137360</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retira - SC SAO JOSE - Centro de Distribuição (8)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>88137360</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Entrega SC</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1bd</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Grátis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>88137360</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Transportadora</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7bd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>R$ 20.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1823752</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Transportadora</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7bd</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>R$ 30.40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
